--- a/mosip_master/xlsx/language.xlsx
+++ b/mosip_master/xlsx/language.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sao Tome and Principe\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674CF7A0-5227-46BB-BCF6-C6388E1DC0B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB72409-98E6-46BC-B736-6A65FAFB392A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>code</t>
   </si>
@@ -109,6 +109,21 @@
   </si>
   <si>
     <t>Tamil</t>
+  </si>
+  <si>
+    <t>por</t>
+  </si>
+  <si>
+    <t>Português</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>fgf</t>
   </si>
 </sst>
 </file>
@@ -165,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -174,7 +189,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,12 +503,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.44140625" style="1"/>
   </cols>
   <sheetData>
@@ -516,16 +535,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -533,16 +552,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -614,6 +633,40 @@
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/mosip_master/xlsx/language.xlsx
+++ b/mosip_master/xlsx/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sao Tome and Principe\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB72409-98E6-46BC-B736-6A65FAFB392A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68E51C5-E2E0-4386-B93F-45E6C492F0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>code</t>
   </si>
@@ -54,63 +54,6 @@
     <t>TRUE</t>
   </si>
   <si>
-    <t>fra</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>français</t>
-  </si>
-  <si>
-    <t>ara</t>
-  </si>
-  <si>
-    <t>Arabic</t>
-  </si>
-  <si>
-    <t>الهندو أوروبية</t>
-  </si>
-  <si>
-    <t>عربي</t>
-  </si>
-  <si>
-    <t>kan</t>
-  </si>
-  <si>
-    <t>ಕನ್ನಡ</t>
-  </si>
-  <si>
-    <t>ಇಂಡೋ-ಯುರೋಪಿಯನ್</t>
-  </si>
-  <si>
-    <t>Kannada</t>
-  </si>
-  <si>
-    <t>hin</t>
-  </si>
-  <si>
-    <t>हिन्दी</t>
-  </si>
-  <si>
-    <t>भारोपीय</t>
-  </si>
-  <si>
-    <t>Hindi</t>
-  </si>
-  <si>
-    <t>tam</t>
-  </si>
-  <si>
-    <t>தமிழ்</t>
-  </si>
-  <si>
-    <t>இந்தோ-ஐரோப்பிய</t>
-  </si>
-  <si>
-    <t>Tamil</t>
-  </si>
-  <si>
     <t>por</t>
   </si>
   <si>
@@ -118,12 +61,6 @@
   </si>
   <si>
     <t>Portuguese</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>fgf</t>
   </si>
 </sst>
 </file>
@@ -503,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,114 +496,12 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/mosip_master/xlsx/language.xlsx
+++ b/mosip_master/xlsx/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sao Tome and Principe\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68E51C5-E2E0-4386-B93F-45E6C492F0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399819F4-853D-4A17-BCBF-C954F7F2B3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>code</t>
   </si>
@@ -61,6 +56,63 @@
   </si>
   <si>
     <t>Portuguese</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>français</t>
+  </si>
+  <si>
+    <t>ara</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>الهندو أوروبية</t>
+  </si>
+  <si>
+    <t>عربي</t>
+  </si>
+  <si>
+    <t>kan</t>
+  </si>
+  <si>
+    <t>ಕನ್ನಡ</t>
+  </si>
+  <si>
+    <t>ಇಂಡೋ-ಯುರೋಪಿಯನ್</t>
+  </si>
+  <si>
+    <t>Kannada</t>
+  </si>
+  <si>
+    <t>hin</t>
+  </si>
+  <si>
+    <t>हिन्दी</t>
+  </si>
+  <si>
+    <t>भारोपीय</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>tam</t>
+  </si>
+  <si>
+    <t>தமிழ்</t>
+  </si>
+  <si>
+    <t>இந்தோ-ஐரோப்பிய</t>
+  </si>
+  <si>
+    <t>Tamil</t>
   </si>
 </sst>
 </file>
@@ -117,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -126,6 +178,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,36 +526,121 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
